--- a/Assets/Resources/BasicData/monster.xlsx
+++ b/Assets/Resources/BasicData/monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11145"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>50</v>
